--- a/Data/Transitions/19121955Translation.xlsx
+++ b/Data/Transitions/19121955Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="876">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{4.0: 1.0, 496.0: 0.0086292731496847}</t>
   </si>
   <si>
-    <t>{5.0: 0.9694199207584238}</t>
+    <t>{5.0: 0.9694640710996556}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -124,7 +124,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,34 +139,34 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.00464423766502221}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.004644267467867127}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 14.0: 0.00027033054943072243, 492.0: 0.00261449808873439, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 14.0: 0.00027132074902629517, 492.0: 0.002614263529252245, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309, 420.0: 0.0015002036847205158, 212.0: 1.4040419552439689e-06, 681.0: 9.01278670318157e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.10406272321566451}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8959371160388855, 91.0: 0.03813849167117715, 858.0: 0.11116858391946506, 543.0: 0.001294970761124982}</t>
+    <t>{90.0: 0.9458544255565603, 420.0: 0.0014977516214824834, 212.0: 1.3983782119795719e-06, 681.0: 8.988932153286299e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.1034156444923224}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8965842063144022, 91.0: 0.038138650843432466, 858.0: 0.10346854860717557, 543.0: 0.0012056216441459632}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.4111959803251983}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.41510667628725817}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.0030689706570926445, 86.0: -0.0013551038561849204}</t>
-  </si>
-  <si>
-    <t>{543.0: -0.00205995733931015, 86.0: -0.000909574070910169, 505.0: 0.009305654974946313}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{543.0: 0.15081441977339646, 86.0: 0.06662308454597138}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.23067153187143186, 86.0: 0.10190039515657803, 505.0: 0.009305654974946313}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.7201640308167709}</t>
   </si>
   <si>
-    <t>{142.0: 0.6824977236609803, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04625027587587877}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9097610131785987}</t>
+    <t>{142.0: 0.6824606825091657, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04275579021694319}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9132382007231626}</t>
   </si>
   <si>
     <t>{145.0: 0.9980884254689805}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015153414756510875}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001527955294161644}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,13 +292,13 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
-  </si>
-  <si>
-    <t>{167.0: 1.0, 276.0: 0.3344527137411508}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
+  </si>
+  <si>
+    <t>{167.0: 1.0, 276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7161445274155449}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0018259753523043798, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.20986575324137519}</t>
+    <t>{171.0: 0.7191593884581571}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018411749109971294, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.21160225464338223}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,64 +328,64 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4329767659251242, 410.0: 0.014187329728803962, 850.0: 0.0011018966358130604, 277.0: 3.178712225309396e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5670232340748759, 410.0: 0.020089868482820475, 850.0: 0.001560332981491432, 277.0: 4.5011930907299054e-05}</t>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4308241964659556, 410.0: 0.014060740473467732, 850.0: 0.0011036579166127315, 277.0: 3.1988312645870726e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5691758035340444, 410.0: 0.019924256116666386, 850.0: 0.0015638979353379187, 277.0: 4.532786414051077e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.001693484250973502}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0036495214120508754, 593.0: 0.0009448311481210115, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.0016946080556379567}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0036220285020085534, 593.0: 0.000944548826804739, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688, 578.0: 0.18204845814977974}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724, 578.0: 0.18204845814977974}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.0002023300897359477}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.008357040088911935}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.00017673394070562247}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.008365967005621318}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.3665829731478953, 543.0: 0.0042702192923199465}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6399709972447439, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.552570936044996e-06}</t>
+    <t>{858.0: 0.26046723041719105, 543.0: 0.0030349795644078613}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6402292990281426, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.561822353323513e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,19 +490,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8994204239565864}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8985808107367719}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -517,34 +520,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.0463962493164385, 887.0: 0.1848324145887591}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.047005362491287325, 887.0: 0.18597332983288342}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -553,13 +556,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6662360148119664}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6660823521023325}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103, 277.0: 0.0024132920808748533}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913, 277.0: 0.002412735471817341}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,25 +583,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.18136033169287674}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.1840774734567476}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.06631936431783429}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.4580060505008871, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.06593118047976738}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.45532522645545087, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285}</t>
@@ -625,40 +628,40 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.0009172755822364778, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009133285356518292, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.17636738590185097}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5888040196748017}</t>
+    <t>{398.0: 1.0, 98.0: 0.5848933237127418}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.014908595742082748, 141.0: 0.0011326521027885587}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24684063435088544, 782.0: 0.016145368846451156, 930.0: 0.03726371901133789}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3066749135495155}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.01488053984211376, 141.0: 0.0011326521027885587}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.3516818738566533, 782.0: 0.023097807016809496, 930.0: 0.05347422948765812}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.3094046235519444}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4370698463018182, 782.0: 0.028587893961467842, 930.0: 0.06598122705262432}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.32941645190917246, 782.0: 0.021635455791109502, 930.0: 0.05008870873334016}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.026208939182337652}</t>
+    <t>{415.0: 1.0, 277.0: 0.02622581817276165}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,55 +727,55 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.24407922124827872, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.5760994831448709}</t>
+    <t>{431.0: 0.18185571176591325, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.6383229926272364}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -793,34 +793,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{476.0: 0.8253941069561146}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.17982129560685034}</t>
@@ -838,25 +838,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.2042483995771623}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.20371712955581503}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.7887436989542731, 534.0: 0.00040881679869270057, 298.0: 0.00019010513430182239, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.7870035085039243, 534.0: 0.00040901744358735914, 298.0: 0.00019241673586831533, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -889,13 +889,13 @@
     <t>{933.0: 0.18729847189120988}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +907,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8952065849373411, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 141.0: 7.505267625444824e-07}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.8956459470954198, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 141.0: 7.505267625444824e-07}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,16 +928,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 1.0, 975.0: 0.0007079704314882281}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 1.0, 975.0: 0.000707939738530667}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -952,7 +952,7 @@
     <t>{561.0: 0.9775441949354993, 979.0: 0.001452643811737362}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,25 +985,25 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.6171109798700464}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7086945288911954, 144.0: 0.024667481077092348, 303.0: 0.08541659767396019}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.6162362878109587}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7088793209528648, 144.0: 0.024689258787754288, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1012,10 +1012,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,22 +1024,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0016654057694474836, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.0034863690703496463, 171.0: 0.0028147416094494553}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.0025338360963508516, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.0025662364834301977, 171.0: 0.0021016812133392445}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1054,19 +1054,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1078,16 +1078,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.008799155487749743, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008659293192683624, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.007395234182415777}</t>
@@ -1111,7 +1111,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1123,10 +1123,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1135,7 +1135,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1147,25 +1147,25 @@
     <t>{636.0: 0.8633610900832702}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011762281836394683}</t>
+    <t>{702.0: 0.0010693921027385644}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9722793299788939, 171.0: 0.003417356334268778}</t>
+    <t>{681.0: 0.9721811674574424, 171.0: 0.0034317428918510754}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1174,10 +1174,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5133392922561841}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 0.0013810195490477153}</t>
+    <t>{686.0: 0.5136687352674095}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 0.001384683319441916}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1189,28 +1189,28 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.47222139305615607, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10262116591668767, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.47388238887602785, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10386899780065838, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17419037196644613}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7979602789534158}</t>
+    <t>{698.0: 0.4032196218620476}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5688945297935495}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,31 +1219,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8084888436544718}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.8084604296703546}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.7743490239264605, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.7743475758866464, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1252,28 +1252,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1285,7 +1285,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1315,10 +1315,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.02572823969081004}</t>
@@ -1336,16 +1336,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,64 +1357,64 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.01832283853376267, 184.0: 0.008221436149102493, 593.0: 0.001243463922487012, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01811161633281786, 184.0: 0.008237802816574552, 593.0: 0.001243129278002249, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.98853021945847, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.98853021945847, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.07035222575331274}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.041453388785100964}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.07088345486884079}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.036209249771767926}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9726485174093751, 486.0: 0.8429827244967432, 604.0: 0.406643068799627, 980.0: 0.30157180612251394}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9719706112379355, 486.0: 0.8407936948063115, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.04791084093211753, 144.0: 5.075542515983719e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.04790278969434347, 144.0: 5.053702402564251e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,25 +1435,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.028770845290212236}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.028906585596008384}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06458457458327624, 543.0: 0.0007523270761965177}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.31088152297049804, 543.0: 0.0036224098811056486}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700407893163199, 253.0: 0.0011020407719018418, 490.0: 0.032209337000882715}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.674127674658629, 253.0: 0.0011087626227937978, 490.0: 0.032521737688368406}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1489,13 +1489,13 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.7685216345134259, 834.0: 0.000365810097070382}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.2210067384085172}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{887.0: 0.7675675658518865, 834.0: 0.00038440478195918737}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.22100815664548643}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1507,64 +1507,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025011973259636902, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.4127354108909617}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 9.52825530390437e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.024959772235402113, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4099997389179901}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 9.553533251428648e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.913783438500914, 887.0: 0.037846795410065276, 834.0: 1.8014769241368704e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9149179109469824, 887.0: 0.03779981112254642, 834.0: 1.8930487424301594e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1582,49 +1582,49 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.8127015281087901, 702.0: 0.004710491178842778, 249.0: 0.09355459834493014, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.8127015281087901, 702.0: 0.0047130320024270705, 249.0: 0.09435006897597502, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153, 785.0: 0.00407454635911437}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153, 785.0: 0.00407454635911437}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974}</t>
@@ -1633,16 +1633,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9964091840330419, 152.0: 0.07154402341844747}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9963659867558985, 152.0: 0.07154462475655347}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1654,19 +1654,19 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807088}</t>
@@ -1690,7 +1690,7 @@
     <t>{11.0: 0.9970355731225298, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123917, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436296, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098776, 696.0: 0.005717900736820557, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1708,10 +1708,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8360594187381457, 90.0: 0.06050131721643373, 246.0: 0.060836043701626874, 681.0: 0.02404754195328322, 741.0: 0.007682407370618042, 789.0: 0.010873271019892428}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8360594187381457, 90.0: 0.06050131721643373, 246.0: 0.06083530380575232, 681.0: 0.02404754195328322, 741.0: 0.00768240737061804, 789.0: 0.010874010915766992}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1726,22 +1726,22 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613503, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571377}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044905, 165.0: 0.0004762467031268951, 433.0: 0.00010498729238260625}</t>
@@ -1753,13 +1753,13 @@
     <t>{89.0: 0.9985642498205312, 88.0: 0.0014357501794687725}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770965, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
+    <t>{90.0: 0.9975819711770965, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
   </si>
   <si>
     <t>{91.0: 0.9626363760350688, 92.0: 0.0373636239649309}</t>
   </si>
   <si>
-    <t>{92.0: 0.539046921397084, 91.0: 0.3314082927595298, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103072}</t>
+    <t>{92.0: 0.539046921397084, 91.0: 0.3314082927595298, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103077}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1771,16 +1771,16 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.659115610624385, 86.0: 0.323545276337936, 505.0: 0.017339113037679228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.22165567715777135}</t>
+    <t>{543.0: 0.6707439927095042, 86.0: 0.329256007290496}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6591138868005696, 86.0: 0.3235470001617511, 505.0: 0.017339113037679228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.987918851151128, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777135}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1792,7 +1792,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273639}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1807,13 +1807,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9799457697103969, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 276.0: 0.5808984820566816}</t>
@@ -1825,34 +1825,34 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.005372492836676218}</t>
   </si>
   <si>
-    <t>{173.0: 0.9475333905575845, 404.0: 0.0060983645409981285, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.2904684560381367e-06, 681.0: 2.857125732925763e-08}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 502.0: 0.48078828492954623}</t>
+    <t>{173.0: 0.9475398833598637, 404.0: 0.006091871738718653, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.290468456038137e-06, 681.0: 2.857125732925763e-08}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 502.0: 0.4786506064287579}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9787688438400038, 14.0: 0.007491382546310046, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5428960109589418, 180.0: 0.44667638591742936, 410.0: 0.010246425442575776, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9742485155365541, 410.0: 0.025304057170381304, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.997996700447797, 277.0: 0.0020032995522036297}</t>
+    <t>{178.0: 0.9787135366093609, 14.0: 0.00749095923121892, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5438355769225947, 180.0: 0.4457633403131957, 410.0: 0.010220365869510065, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381304, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.0020111203123151546}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9835310975016115, 171.0: 0.011387480521058113, 593.0: 0.003396785858732227, 778.0: 0.0016846361185983833}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
+    <t>{184.0: 0.9834880171812896, 171.0: 0.01140760291424029, 593.0: 0.003406010339252075, 778.0: 0.001698369565217391}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1864,13 +1864,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.683704517870523, 940.0: 0.11807027527014115, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1894,16 +1894,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.21846661763190867}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310287, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.2186245622734175}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.0998463901689708}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1915,10 +1915,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9996683166600523, 297.0: 0.0001786147939395593, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{232.0: 0.990109501942776, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1927,13 +1927,13 @@
     <t>{102.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364936}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364936}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9994584743592912, 46.0: 0.0004820751577681767, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.42970638476837e-06, 789.0: 6.269570947818603e-06}</t>
+    <t>{246.0: 0.9994584739326645, 46.0: 0.0004820751577681767, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.4297063847683686e-06, 789.0: 6.269997574697588e-06}</t>
   </si>
   <si>
     <t>{249.0: 1.0}</t>
@@ -1948,7 +1948,7 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740357, 973.0: 0.11120957022596364}</t>
+    <t>{255.0: 0.8887904297740366, 973.0: 0.11120957022596364}</t>
   </si>
   <si>
     <t>{260.0: 0.9678010679843787, 707.0: 0.03219893201562126}</t>
@@ -1957,16 +1957,16 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477114, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.2854904034012877, 887.0: 0.7145095965987118}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477111, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.2854902606045079, 887.0: 0.7145097393954926}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
@@ -2005,10 +2005,10 @@
     <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951956}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825852, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938829, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318248, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109047, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -2017,7 +2017,7 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701205, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -2026,16 +2026,16 @@
     <t>{142.0: 0.3165679387265435, 909.0: 0.6834320612734565}</t>
   </si>
   <si>
-    <t>{309.0: 0.8858654923525082, 204.0: 0.040985444079406186, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
+    <t>{309.0: 0.8880984604071782, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736113, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452716, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.48711423962041384, 98.0: 0.5128857603795861}</t>
@@ -2044,9 +2044,6 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9681191395477117, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
@@ -2056,13 +2053,13 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052391, 782.0: 0.024509507908537877, 930.0: 0.1908309337862231}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{404.0: 0.784610271386408, 782.0: 0.024531876508247667, 930.0: 0.19085785210534426}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2071,22 +2068,22 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052389, 782.0: 0.024509507908537884, 930.0: 0.19083093378622315}</t>
+    <t>{404.0: 0.7846102713864082, 782.0: 0.02453187650824766, 930.0: 0.1908578521053443}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.0001609375473236561, 681.0: 3.563192929675042e-06}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365617, 681.0: 3.563192929675042e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2095,7 +2092,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.04756292440600669, 434.0: 0.0003999430514455908}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.000399325219749228}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2107,7 +2104,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.0001883948756593821}</t>
+    <t>{431.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2122,13 +2119,13 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.01136363636363637}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.10603448275862068}</t>
+    <t>{443.0: 0.8939655172413792, 291.0: 0.10603448275862067}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -2140,28 +2137,28 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977861, 942.0: 0.022140221402214017}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.02257761053621825}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555474, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869781, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015407070206966458, 14.0: 0.00011792391795535072}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277218, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015407070206966458, 14.0: 0.00011792391795535072}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9826319305277219, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -2173,7 +2170,7 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
+    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2200,10 +2197,10 @@
     <t>{534.0: 0.9992392131290079, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.00654773201746062}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124718, 837.0: 0.18177668218752846}</t>
+    <t>{535.0: 0.9934522679825392, 71.0: 0.00654773201746062}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{537.0: 0.9727987104573844, 608.0: 0.027201289542615352}</t>
@@ -2254,13 +2251,13 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9916614024005049, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
@@ -2269,13 +2266,13 @@
     <t>{589.0: 0.9755777741353876, 145.0: 0.0014751680052450418, 743.0: 0.022947057859367317}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9912075672819322, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130087, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
@@ -2284,7 +2281,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.7589999858839297, 837.0: 0.1686196130210783, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{604.0: 0.7596809969694167, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621468, 475.0: 0.025141242937853105}</t>
@@ -2308,16 +2305,16 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665934, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230429, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9870244830639152, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064314, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025535, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111374}</t>
@@ -2359,7 +2356,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0014779400691736146, 502.0: 0.00136856748501951}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0014964765105820598, 502.0: 0.0013739143041673336}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
@@ -2374,13 +2371,13 @@
     <t>{692.0: 0.9612552033301314, 110.0: 0.03874479666986872}</t>
   </si>
   <si>
-    <t>{86.0: 0.9518932703057186, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.230205000670429e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.951893270305719, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652259, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.2281196520579893e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2389,7 +2386,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2398,25 +2395,25 @@
     <t>{730.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.8647615067933467, 73.0: 0.13523849320665327}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{888.0: 0.8647924498870715, 73.0: 0.13520755011292845}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113908, 90.0: 0.09275598362042736, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685352, 691.0: 0.01001453723146503}</t>
+    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
     <t>{298.0: 0.562630917469627, 476.0: 0.24088814411395051, 534.0: 0.19648093841642233}</t>
@@ -2446,25 +2443,25 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454609, 493.0: 0.011552824787393202, 108.0: 0.0002017298356079579, 144.0: 2.4669315383529704e-06}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454604, 493.0: 0.01155282478739321, 108.0: 0.00020172983560795785, 144.0: 2.4669315383529704e-06}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031756e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.0014829986394605862, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -2473,7 +2470,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853456}</t>
+    <t>{789.0: 0.942697511591595, 246.0: 0.05730248840840526}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
@@ -2482,49 +2479,49 @@
     <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9854027219869261, 836.0: 0.00954570992214585, 756.0: 0.005051568090928225}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7963103836559645, 486.0: 0.09037248577453545, 604.0: 0.09426570048531795, 980.0: 0.019051430084181874}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.992251595259799, 423.0: 0.007748404740200546}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076414, 277.0: 0.09749670619235835}</t>
+    <t>{835.0: 0.985065525336512, 836.0: 0.009882906572559542, 756.0: 0.005051568090928225}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597999, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7963008280391101, 486.0: 0.09037248577453545, 604.0: 0.09427525610217231, 980.0: 0.019051430084181874}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9922515952597998, 423.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926489, 7.0: 0.07656967840735066}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290919, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796246, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323129, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527882}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796242, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310048, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085411, 298.0: 0.005269269691458644}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2536,7 +2533,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500589, 834.0: 0.000880397549941118}</t>
+    <t>{887.0: 0.999132407847768, 834.0: 0.0008675921522319135}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2560,16 +2557,16 @@
     <t>{906.0: 0.9619192688499618, 477.0: 0.03808073115003808}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 7.377404671415714e-06, 502.0: 6.831451672310367e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.004977352458495427, 174.0: 7.4699326651350734e-06, 502.0: 6.8581412853610675e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.2237936706392746}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2578,25 +2575,25 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9925845578271277, 297.0: 0.005990275426909785, 857.0: 0.0014251667459625362}</t>
+    <t>{298.0: 0.9927157970888627, 297.0: 0.005859444871573596, 857.0: 0.001424758039564063}</t>
   </si>
   <si>
     <t>{921.0: 0.81830247409683, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854249, 887.0: 0.06836565552205066, 834.0: 6.02419925243539e-05}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906858}</t>
+    <t>{922.0: 0.9315741024854249, 887.0: 0.06836653174288196, 834.0: 5.9365771693070486e-05}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142143, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215624, 108.0: 0.0017460566474922742, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.8423221870179418, 702.0: 0.006263086851211318, 249.0: 0.11697890198493716, 299.0: 0.03443582414590989}</t>
+    <t>{932.0: 0.9982325910215624, 108.0: 0.0017460566474922729, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.8428288760033293, 702.0: 0.0062417987067828395, 249.0: 0.11649350114397815, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747109, 5.0: 0.03148289312528854}</t>
@@ -2605,22 +2602,22 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655217, 593.0: 0.0036190543506065143, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.5087331512190117, 206.0: 0.48442794300591246, 785.0: 0.006838905775075989}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.003293336475407618, 593.0: 0.0036166623781342037, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.494423377055501, 206.0: 0.498737717169423, 785.0: 0.006838905775075989}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680621, 634.0: 0.10812454662003079, 848.0: 0.16042594361443505, 707.0: 0.0009136740974718651}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382852, 615.0: 0.04586241276171485}</t>
+    <t>{943.0: 0.7045586858250902, 634.0: 0.10993183872972913, 848.0: 0.184458926268521, 707.0: 0.001050549176659826}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.0462311557788945}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -2632,7 +2629,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601316, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{782.0: 0.9504155918601316, 489.0: 0.04917437168691644, 935.0: 0.0004100364529517132}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -2644,7 +2641,7 @@
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112362}</t>
+    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112356}</t>
   </si>
 </sst>
 </file>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4660,7 +4657,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4671,40 +4668,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>612</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4715,106 +4712,106 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>640</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>642</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>643</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>643</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>644</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4825,128 +4822,128 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>645</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>646</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>651</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4957,51 +4954,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>652</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>654</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -5012,40 +5009,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>655</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>656</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -5056,106 +5053,106 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>657</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>658</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>659</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>660</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>661</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5166,205 +5163,205 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>663</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>665</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>666</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>667</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>668</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>669</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>670</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>613</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>671</v>
+        <v>613</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>672</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>673</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>673</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5414,7 +5411,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5425,7 +5422,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5436,7 +5433,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5447,7 +5444,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5458,7 +5455,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5469,7 +5466,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5502,7 +5499,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5524,7 +5521,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5535,7 +5532,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5557,7 +5554,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5568,7 +5565,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5601,7 +5598,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5623,7 +5620,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5645,7 +5642,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5656,7 +5653,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5667,7 +5664,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5700,7 +5697,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5711,7 +5708,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5733,7 +5730,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5744,7 +5741,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5766,7 +5763,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5777,7 +5774,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5843,7 +5840,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5854,7 +5851,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5865,7 +5862,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5876,7 +5873,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5887,7 +5884,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5898,7 +5895,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5920,7 +5917,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5942,7 +5939,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5953,7 +5950,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5964,7 +5961,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6008,7 +6005,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6019,7 +6016,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6030,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6041,7 +6038,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6052,7 +6049,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6074,7 +6071,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6085,7 +6082,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6107,7 +6104,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6140,7 +6137,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6173,7 +6170,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6184,7 +6181,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6195,7 +6192,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6206,7 +6203,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6217,7 +6214,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6228,7 +6225,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6272,7 +6269,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6283,7 +6280,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6294,7 +6291,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6327,7 +6324,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6338,7 +6335,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6349,7 +6346,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6360,7 +6357,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6371,7 +6368,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6415,7 +6412,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6426,7 +6423,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6437,7 +6434,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6448,7 +6445,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6459,7 +6456,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6481,7 +6478,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6492,7 +6489,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6514,7 +6511,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6536,7 +6533,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6547,7 +6544,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6558,7 +6555,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6569,7 +6566,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6591,7 +6588,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6613,7 +6610,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6646,7 +6643,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6657,7 +6654,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6690,7 +6687,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6701,7 +6698,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6712,7 +6709,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6723,7 +6720,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6734,7 +6731,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6745,7 +6742,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6800,7 +6797,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6811,7 +6808,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6822,7 +6819,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6844,7 +6841,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6855,7 +6852,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6866,7 +6863,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6888,7 +6885,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6899,7 +6896,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6910,7 +6907,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6921,7 +6918,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6954,7 +6951,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6965,7 +6962,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6976,7 +6973,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6987,7 +6984,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -7009,7 +7006,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -7064,7 +7061,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7086,7 +7083,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7141,7 +7138,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7185,7 +7182,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7207,7 +7204,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7218,7 +7215,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7229,7 +7226,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7240,7 +7237,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7262,7 +7259,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7273,7 +7270,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7284,7 +7281,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7295,7 +7292,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7317,7 +7314,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7339,7 +7336,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7361,7 +7358,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7372,7 +7369,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7383,7 +7380,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7405,7 +7402,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7416,7 +7413,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7438,7 +7435,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7449,7 +7446,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7471,7 +7468,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7493,7 +7490,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7526,7 +7523,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7537,7 +7534,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7559,7 +7556,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7570,7 +7567,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7581,7 +7578,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7603,7 +7600,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7614,7 +7611,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7647,7 +7644,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7669,7 +7666,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7680,7 +7677,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7713,7 +7710,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7724,7 +7721,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7735,7 +7732,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7746,7 +7743,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7757,7 +7754,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7768,7 +7765,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7779,7 +7776,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7812,7 +7809,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7834,7 +7831,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7856,7 +7853,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7867,7 +7864,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7911,7 +7908,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7933,7 +7930,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7944,7 +7941,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7966,7 +7963,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7977,7 +7974,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7999,7 +7996,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8010,7 +8007,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8032,7 +8029,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -8043,7 +8040,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8065,7 +8062,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8076,7 +8073,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8087,7 +8084,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8098,7 +8095,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8120,7 +8117,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8153,7 +8150,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8197,7 +8194,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8219,7 +8216,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8230,7 +8227,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8241,7 +8238,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8252,7 +8249,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8263,7 +8260,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8296,7 +8293,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8307,7 +8304,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8340,7 +8337,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8351,7 +8348,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8362,7 +8359,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8384,7 +8381,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8395,7 +8392,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8406,7 +8403,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8417,7 +8414,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8461,7 +8458,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8483,7 +8480,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8494,7 +8491,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8505,7 +8502,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8516,7 +8513,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8527,7 +8524,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8549,7 +8546,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8560,7 +8557,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8582,7 +8579,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8593,7 +8590,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8615,7 +8612,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8626,7 +8623,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8637,7 +8634,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8659,7 +8656,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8670,7 +8667,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8736,7 +8733,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8747,7 +8744,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8758,7 +8755,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8769,7 +8766,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8780,7 +8777,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8791,7 +8788,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8813,7 +8810,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8824,7 +8821,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8846,7 +8843,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8857,7 +8854,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8879,7 +8876,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8890,7 +8887,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8901,7 +8898,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8923,7 +8920,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8934,7 +8931,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8956,7 +8953,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8967,7 +8964,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8978,7 +8975,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9000,7 +8997,7 @@
         <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -9011,7 +9008,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -9022,7 +9019,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -9033,7 +9030,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="549" spans="1:3">
